--- a/Board_MCU.xlsx
+++ b/Board_MCU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Keyboards\git-keyboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005C284E-C2EA-40B4-9B56-5D9CDD2994A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABA1C3-52EB-4853-9A07-1169F5A5C4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{C63E1BF8-1543-41B2-B696-23FA0BBFEA57}"/>
+    <workbookView xWindow="15390" yWindow="495" windowWidth="13230" windowHeight="13905" firstSheet="1" activeTab="3" xr2:uid="{C63E1BF8-1543-41B2-B696-23FA0BBFEA57}"/>
   </bookViews>
   <sheets>
     <sheet name="Atmega32U4" sheetId="2" r:id="rId1"/>
@@ -281,10 +281,10 @@
     <t>GPIO1</t>
   </si>
   <si>
-    <t>GPIO22</t>
-  </si>
-  <si>
     <t>GPIO26</t>
+  </si>
+  <si>
+    <t>GPIO28</t>
   </si>
   <si>
     <t>GPIO27</t>
@@ -294,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,13 +302,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,8 +336,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,236 +1320,690 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF2382E-6F34-46CE-93D4-F582A05AE1EE}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D17" sqref="D17:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
